--- a/DataSource/DataSource - Emision Hogar Enlatada.xlsx
+++ b/DataSource/DataSource - Emision Hogar Enlatada.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\DataSource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A671457-7C78-4BA7-AFA3-663AB58594B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268EAF02-2283-415C-8B72-599D1C6C9361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Usuario</t>
   </si>
@@ -77,6 +69,9 @@
     <t>SumaAsegurada</t>
   </si>
   <si>
+    <t>silverarrow</t>
+  </si>
+  <si>
     <t>Answer</t>
   </si>
   <si>
@@ -101,6 +96,15 @@
     <t>Permanente</t>
   </si>
   <si>
+    <t>ZAMORADOS</t>
+  </si>
+  <si>
+    <t>ZAMORATRES</t>
+  </si>
+  <si>
+    <t>ZAMOTRACUATRO</t>
+  </si>
+  <si>
     <t>Ambiente</t>
   </si>
   <si>
@@ -113,74 +117,53 @@
     <t>https://ssurgwsoadev4.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
   </si>
   <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>i-gestion-ssur-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>https://i-gestion-ssur-oci.opc.oracleoutsourcing.com/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>suraqa</t>
+  </si>
+  <si>
+    <t>ZAMORA UNO</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>6 Cuotas - ARS</t>
+  </si>
+  <si>
+    <t>Tarjeta de Crédito</t>
+  </si>
+  <si>
+    <t>Débito Bancario</t>
+  </si>
+  <si>
     <t>CantCuotas</t>
   </si>
   <si>
-    <t>TipoTarjeta</t>
-  </si>
-  <si>
-    <t>NumTarjetaCred</t>
-  </si>
-  <si>
-    <t>FechaVencimiento</t>
-  </si>
-  <si>
-    <t>ConductoPago</t>
-  </si>
-  <si>
-    <t>NumCBU</t>
-  </si>
-  <si>
-    <t>10 Cuotas - ARS</t>
-  </si>
-  <si>
-    <t>Naranja</t>
-  </si>
-  <si>
-    <t>5895625701430010</t>
-  </si>
-  <si>
-    <t>12/2022</t>
-  </si>
-  <si>
-    <t>11 Cuotas - ARS</t>
-  </si>
-  <si>
-    <t>American Express</t>
-  </si>
-  <si>
-    <t>376714000199465</t>
-  </si>
-  <si>
-    <t>12 Cuotas - ARS</t>
-  </si>
-  <si>
-    <t>SNP</t>
-  </si>
-  <si>
-    <t>1910113455011302255896</t>
-  </si>
-  <si>
-    <t>Tarjeta de Crédito</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>Débito Bancario</t>
-  </si>
-  <si>
-    <t>su</t>
-  </si>
-  <si>
     <t>gw</t>
+  </si>
+  <si>
+    <t>ZAMORASEIS</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,43 +179,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -240,36 +196,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -551,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,20 +500,21 @@
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -605,509 +540,294 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" t="s">
-        <v>10</v>
-      </c>
-      <c r="S1" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>7582677255</v>
+        <v>3953632394</v>
       </c>
       <c r="F2">
         <v>2344</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
       </c>
       <c r="Q2">
-        <v>100</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V2">
-        <v>610000</v>
+        <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E3">
-        <v>7582677255</v>
+        <v>8965431747</v>
       </c>
       <c r="F3">
         <v>2344</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
         <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
       </c>
       <c r="Q3">
-        <v>101</v>
-      </c>
-      <c r="R3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3">
-        <v>610001</v>
+        <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>7582677255</v>
+        <v>8965431747</v>
       </c>
       <c r="F4">
         <v>2344</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
       </c>
       <c r="Q4">
-        <v>102</v>
-      </c>
-      <c r="R4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4">
-        <v>610002</v>
+        <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>7582677255</v>
+        <v>8965431747</v>
       </c>
       <c r="F5">
         <v>2344</v>
       </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5">
-        <v>103</v>
-      </c>
-      <c r="R5" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5">
-        <v>610003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6">
-        <v>7582677255</v>
-      </c>
-      <c r="F6">
-        <v>2344</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q6">
-        <v>104</v>
-      </c>
-      <c r="R6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" t="s">
-        <v>20</v>
-      </c>
-      <c r="U6" t="s">
-        <v>21</v>
-      </c>
-      <c r="V6">
-        <v>610004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" t="s">
-        <v>46</v>
-      </c>
       <c r="E7">
-        <v>7582677255</v>
+        <v>1741072045</v>
       </c>
       <c r="F7">
         <v>2344</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>22</v>
       </c>
       <c r="Q7">
-        <v>105</v>
-      </c>
-      <c r="R7" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T7" t="s">
-        <v>20</v>
-      </c>
-      <c r="U7" t="s">
-        <v>21</v>
-      </c>
-      <c r="V7">
-        <v>610005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8">
-        <v>7582677255</v>
-      </c>
-      <c r="F8">
-        <v>2344</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="Q8">
-        <v>106</v>
-      </c>
-      <c r="R8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" t="s">
-        <v>20</v>
-      </c>
-      <c r="U8" t="s">
-        <v>21</v>
-      </c>
-      <c r="V8">
-        <v>610006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9">
-        <v>7582677255</v>
-      </c>
-      <c r="F9">
-        <v>2344</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9">
-        <v>107</v>
-      </c>
-      <c r="R9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" t="s">
-        <v>21</v>
-      </c>
-      <c r="V9">
-        <v>610007</v>
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{CBFEDD61-A162-4605-B12F-210FD3B74C85}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{784A14A0-5004-49B0-BF8E-7C9EA5478C8E}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{8C562C6B-5B07-4368-8776-4AC994381B4D}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{DC193A1D-2CBF-4B35-9986-404AE75CD2AA}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{672DC8EE-094B-4423-B429-840246ABB8CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
